--- a/biology/Médecine/Archiatre/Archiatre.xlsx
+++ b/biology/Médecine/Archiatre/Archiatre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'archiatre (du grec ancien ἀρχίατρος, arkhíatros, latin archiatrus) est le médecin d'un monarque ou d'une famille royale.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Antiquité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le titre d'archiatre apparaît avec le médecin personnel de Néron, Andromaque[1]. Le titre d'archiatre existait en Grèce hellénistique.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le titre d'archiatre apparaît avec le médecin personnel de Néron, Andromaque. Le titre d'archiatre existait en Grèce hellénistique.
 La création du collège des archiatri palatini, assemblée réunissant les médecins impériaux, officialise la position des archiatres à Rome.
 Toutefois jusqu'à l'empereur Dioclétien, le terme désigne différentes catégories de médecins. 
 Le Code de Théodose Ier établit un nouveau système hiérarchique médical : les Archiatri sancti Palatini, médecins du palais, et les Archiatri Populares, médecins du peuple et des pauvres, sont sous les ordres du Comes archiatorum. 
@@ -574,9 +590,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">France
-Le titre de « médecin du roi » doit être distingué de celui de « médecin ordinaire », donné la première fois à André du Laurens[2].
-Paul Delaunay a examiné attentivement les fonctions de médecin officiel (y compris leur rémunération)[3].
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le titre de « médecin du roi » doit être distingué de celui de « médecin ordinaire », donné la première fois à André du Laurens.
+Paul Delaunay a examiné attentivement les fonctions de médecin officiel (y compris leur rémunération).
 </t>
         </is>
       </c>
@@ -605,7 +626,9 @@
           <t>Vatican</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Vatican, l’archiatre pontifical est le médecin du Saint-Père.
 </t>
